--- a/biology/Médecine/Rétrécissement_mitral/Rétrécissement_mitral.xlsx
+++ b/biology/Médecine/Rétrécissement_mitral/Rétrécissement_mitral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9tr%C3%A9cissement_mitral</t>
+          <t>Rétrécissement_mitral</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rétrécissement mitral (ou sténose mitrale) est une maladie de l'appareil circulatoire caractérisée par un obstacle à l'écoulement du sang à travers la valve mitrale pendant la diastole, dû à l'épaississement du tissu valvulaire.
 Il peut être associé à une insuffisance mitrale. On parle alors de « maladie mitrale ».
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9tr%C3%A9cissement_mitral</t>
+          <t>Rétrécissement_mitral</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Cause</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit essentiellement d'une complication tardive d'un rhumatisme articulaire aigu : une angine à streptocoque β-hémolytique du groupe A, non traitée correctement, se complique d'une cardite donnant, à long terme, une fibrose de la valve mitrale avec épaississement de cette dernière et fusion des commissures. 
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9tr%C3%A9cissement_mitral</t>
+          <t>Rétrécissement_mitral</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette maladie est devenue rare dans les pays occidentaux, du fait d'une prise en charge correcte des angines bactériennes. Elle est plus fréquente dans les pays en voie de développement.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9tr%C3%A9cissement_mitral</t>
+          <t>Rétrécissement_mitral</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rétrécissement mitral gêne le passage du sang de l'oreillette gauche vers le ventricule gauche. La différence de pression entre les deux cavités est d'autant plus forte que le rétrécissement est plus important.
 Cette augmentation des pressions se répercute en amont, de l'oreillette gauche vers le capillaire pulmonaire et l'artère pulmonaire, puis vers les cavités cardiaques droites.
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R%C3%A9tr%C3%A9cissement_mitral</t>
+          <t>Rétrécissement_mitral</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Clinique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le patient se plaint d'une dyspnée (essoufflement) plus ou moins importante, pour des efforts plus ou moins élevés. Il peut ressentir des palpitations, en rapport avec une fibrillation auriculaire.
 Un antécédent de rhumatisme articulaire aigu doit être systématiquement recherché et pouvant exister des décennies avant l'apparition des premiers symptômes du rétrécissement mitral. 
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R%C3%A9tr%C3%A9cissement_mitral</t>
+          <t>Rétrécissement_mitral</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,7 +660,9 @@
           <t>Examens complémentaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'électrocardiogramme peut montrer un rythme sinusal avec une onde P (due à la dépolarisation des oreillettes) augmentée en taille et en largeur, témoignant d'une hypertrophie auriculaire gauche. Il peut montrer une fibrillation auriculaire, complication classique du rétrécissement mitral, avec trémulations de la ligne de base, témoignant de l'absence d'activité auriculaire. 
 La radiographie du thorax peut montrer une oreillette gauche dilatée (double arc du bord droit, arc moyen gauche un peu bombant), un éventuel retentissement pulmonaire avec une surcharge vasculaire au niveau des hiles.
@@ -657,7 +679,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R%C3%A9tr%C3%A9cissement_mitral</t>
+          <t>Rétrécissement_mitral</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,7 +697,9 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle se fait vers la majoration progressive et lente du rétrécissement, entraînant l'aggravation progressive des symptômes (dyspnée) et le risque d'hospitalisations pour décompensation.
 La fibrillation auriculaire est une complication classique et marque souvent une aggravation des symptômes. Le risque embolique est alors élevé, avec accident vasculaire cérébral, ischémie aiguë de membre.
@@ -689,7 +713,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R%C3%A9tr%C3%A9cissement_mitral</t>
+          <t>Rétrécissement_mitral</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -707,14 +731,86 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe plusieurs documents faisant office de recommandations sur la prise en charge du rétrécissement mitral. Celles, américaines,  ont été révisés en 2020[1]. Celles, européennes, datent de 2007[2] et mise à jour en 2022[3].
-Traitement médical
-Les diurétiques permettent de diminuer les symptômes.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe plusieurs documents faisant office de recommandations sur la prise en charge du rétrécissement mitral. Celles, américaines,  ont été révisés en 2020. Celles, européennes, datent de 2007 et mise à jour en 2022.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Rétrécissement_mitral</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9tr%C3%A9cissement_mitral</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Traitement médical</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les diurétiques permettent de diminuer les symptômes.
 En cas de fibrillation auriculaire, il faut essentiellement ralentir le cœur (digitaliques ou bêta-bloquants). La mise sous anticoagulant oral par antivitamine K est obligatoire devant le risque embolique, les scores de risque ne s'appliquant pas en cas de fibrillation d'origine valvulaire. 
-Traitement chirurgical
-Si le rétrécissement mitral est jugé serré (surface inférieure à 1,5 cm2)[3], pur (c'est-à-dire sans fuite significative associée), symptomatique et avec des valves restant souples et en l'absence de thrombus intra-auriculaire, une valvuloplastie percutanée peut être proposée en première intention : un cathéter muni d'un ballon dégonflé est monté dans l'orifice mitrale par la veine cave, l'oreillette droite et le passage dans l'oreillette gauche par perforation du septum inter-auriculaire. Le ballon est alors gonflé, faisant craquer les commissures et ouvrant la valve mitrale. la procédure est relativement simple, ne nécessitant pas, en particulier d'ouverture cardiaque, et donc de recours à une circulation extra-corporelle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Rétrécissement_mitral</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9tr%C3%A9cissement_mitral</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Traitement chirurgical</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si le rétrécissement mitral est jugé serré (surface inférieure à 1,5 cm2), pur (c'est-à-dire sans fuite significative associée), symptomatique et avec des valves restant souples et en l'absence de thrombus intra-auriculaire, une valvuloplastie percutanée peut être proposée en première intention : un cathéter muni d'un ballon dégonflé est monté dans l'orifice mitrale par la veine cave, l'oreillette droite et le passage dans l'oreillette gauche par perforation du septum inter-auriculaire. Le ballon est alors gonflé, faisant craquer les commissures et ouvrant la valve mitrale. la procédure est relativement simple, ne nécessitant pas, en particulier d'ouverture cardiaque, et donc de recours à une circulation extra-corporelle.
 Dans les autres cas, une chirurgie classique est proposée, soit une ouverture chirurgicale des commissures mitrales fusionnées dite commissurotomie à cœur ouvert, soit un remplacement valvulaire par valve mécanique ou par bioprothèse valvulaire.
 </t>
         </is>
